--- a/100.Costing.R0.Technodry System Engineering.dtd.23.07.25 (1).xlsx
+++ b/100.Costing.R0.Technodry System Engineering.dtd.23.07.25 (1).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VMS-Costing\100.Technodry System Engineering\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\riddhiselkar\Desktop\intsol marketing\Automation Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA1A63EE-81BE-45F3-A9B0-5AE1B2825ECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C240D42-6FD0-463D-B5C4-A354CB735FF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="879" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1131,11 +1131,11 @@
     <xf numFmtId="1" fontId="45" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="23">
@@ -1856,8 +1856,8 @@
   </sheetPr>
   <dimension ref="B1:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="77" zoomScaleNormal="58" zoomScaleSheetLayoutView="77" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A9" zoomScale="58" zoomScaleNormal="58" zoomScaleSheetLayoutView="58" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1866,7 +1866,7 @@
     <col min="2" max="2" width="13.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="77.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="33.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20" style="1" customWidth="1"/>
     <col min="6" max="6" width="12.42578125" style="49" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.85546875" style="49" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.140625" style="1" customWidth="1"/>
@@ -1938,7 +1938,7 @@
       <c r="B6" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="C6" s="83">
+      <c r="C6" s="82">
         <v>45846</v>
       </c>
       <c r="D6" s="9"/>
@@ -2263,7 +2263,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.34" right="0.17" top="0.17" bottom="0.17" header="0.17" footer="0.26"/>
-  <pageSetup scale="73" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup scale="69" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -2395,7 +2395,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" ht="30">
-      <c r="A17" s="82" t="s">
+      <c r="A17" s="83" t="s">
         <v>51</v>
       </c>
       <c r="B17" s="72" t="s">
@@ -2403,13 +2403,13 @@
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="82"/>
+      <c r="A18" s="83"/>
       <c r="B18" s="73" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15">
-      <c r="A19" s="82"/>
+      <c r="A19" s="83"/>
       <c r="B19" s="72" t="s">
         <v>54</v>
       </c>
@@ -2456,15 +2456,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005ABDE5D5ED57974D8082953D1817137C" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="58d96985113be4b33b55453c351801ba">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="91808bea-d5cd-40b3-b27c-cc25f414b00e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e8ee5a159577e60c35329c44e47c86b2" ns3:_="">
     <xsd:import namespace="91808bea-d5cd-40b3-b27c-cc25f414b00e"/>
@@ -2596,6 +2587,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F94A9990-03D3-4845-B61A-33503A73C1FA}">
   <ds:schemaRefs>
@@ -2613,14 +2613,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{552A410B-E359-4CF9-B1FD-64BB9C7263DD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0681B0A2-2174-483E-82D8-6D8588CD515E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2636,4 +2628,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{552A410B-E359-4CF9-B1FD-64BB9C7263DD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>